--- a/Task 8 timing.xlsx
+++ b/Task 8 timing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="20">
   <si>
     <t>A</t>
   </si>
@@ -69,6 +69,21 @@
   </si>
   <si>
     <t>If can CORDIC skip on both</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Fl</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -139,18 +154,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC47"/>
+  <dimension ref="A1:BC99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="BC9" sqref="A1:BC9"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P105" sqref="P105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,167 +460,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5">
         <v>1</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="5">
         <v>2</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="5">
         <v>3</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="5">
         <v>4</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="5">
         <v>5</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="5">
         <v>6</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="5">
         <v>7</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="5">
         <v>8</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="5">
         <v>9</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="5">
         <v>10</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="5">
         <v>11</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="5">
         <v>12</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="5">
         <v>13</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="5">
         <v>14</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="5">
         <v>15</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="5">
         <v>16</v>
       </c>
-      <c r="R1" s="6">
+      <c r="R1" s="5">
         <v>17</v>
       </c>
-      <c r="S1" s="6">
+      <c r="S1" s="5">
         <v>18</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="5">
         <v>19</v>
       </c>
-      <c r="U1" s="6">
+      <c r="U1" s="5">
         <v>20</v>
       </c>
-      <c r="V1" s="6">
+      <c r="V1" s="5">
         <v>21</v>
       </c>
-      <c r="W1" s="6">
+      <c r="W1" s="5">
         <v>22</v>
       </c>
-      <c r="X1" s="6">
+      <c r="X1" s="5">
         <v>23</v>
       </c>
-      <c r="Y1" s="6">
+      <c r="Y1" s="5">
         <v>24</v>
       </c>
-      <c r="Z1" s="6">
+      <c r="Z1" s="5">
         <v>25</v>
       </c>
-      <c r="AA1" s="6">
+      <c r="AA1" s="5">
         <v>26</v>
       </c>
-      <c r="AB1" s="6">
+      <c r="AB1" s="5">
         <v>27</v>
       </c>
-      <c r="AC1" s="6">
+      <c r="AC1" s="5">
         <v>28</v>
       </c>
-      <c r="AD1" s="6">
+      <c r="AD1" s="5">
         <v>29</v>
       </c>
-      <c r="AE1" s="6">
+      <c r="AE1" s="5">
         <v>30</v>
       </c>
-      <c r="AF1" s="6">
+      <c r="AF1" s="5">
         <v>31</v>
       </c>
-      <c r="AG1" s="6">
+      <c r="AG1" s="5">
         <v>32</v>
       </c>
-      <c r="AH1" s="6">
+      <c r="AH1" s="5">
         <v>33</v>
       </c>
-      <c r="AI1" s="6">
+      <c r="AI1" s="5">
         <v>34</v>
       </c>
-      <c r="AJ1" s="6">
+      <c r="AJ1" s="5">
         <v>35</v>
       </c>
-      <c r="AK1" s="6">
+      <c r="AK1" s="5">
         <v>36</v>
       </c>
-      <c r="AL1" s="6">
+      <c r="AL1" s="5">
         <v>37</v>
       </c>
-      <c r="AM1" s="6">
+      <c r="AM1" s="5">
         <v>38</v>
       </c>
-      <c r="AN1" s="6">
+      <c r="AN1" s="5">
         <v>39</v>
       </c>
-      <c r="AO1" s="6">
+      <c r="AO1" s="5">
         <v>40</v>
       </c>
-      <c r="AP1" s="6">
+      <c r="AP1" s="5">
         <v>41</v>
       </c>
-      <c r="AQ1" s="6">
+      <c r="AQ1" s="5">
         <v>42</v>
       </c>
-      <c r="AR1" s="6">
+      <c r="AR1" s="5">
         <v>43</v>
       </c>
-      <c r="AS1" s="6">
+      <c r="AS1" s="5">
         <v>44</v>
       </c>
-      <c r="AT1" s="6">
+      <c r="AT1" s="5">
         <v>45</v>
       </c>
-      <c r="AU1" s="6">
+      <c r="AU1" s="5">
         <v>46</v>
       </c>
-      <c r="AV1" s="6">
+      <c r="AV1" s="5">
         <v>47</v>
       </c>
-      <c r="AW1" s="6">
+      <c r="AW1" s="5">
         <v>48</v>
       </c>
-      <c r="AX1" s="6">
+      <c r="AX1" s="5">
         <v>49</v>
       </c>
-      <c r="AY1" s="6">
+      <c r="AY1" s="5">
         <v>50</v>
       </c>
-      <c r="AZ1" s="6">
+      <c r="AZ1" s="5">
         <v>51</v>
       </c>
-      <c r="BA1" s="6">
+      <c r="BA1" s="5">
         <v>52</v>
       </c>
-      <c r="BB1" s="6">
+      <c r="BB1" s="5">
         <v>53</v>
       </c>
-      <c r="BC1" s="6">
+      <c r="BC1" s="5">
         <v>54</v>
       </c>
     </row>
@@ -638,24 +654,24 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3" t="s">
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
@@ -678,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -698,27 +714,27 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
@@ -746,46 +762,46 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
       <c r="T4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
@@ -849,24 +865,24 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
-      <c r="AP5" s="3" t="s">
+      <c r="AP5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3" t="s">
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="3"/>
-      <c r="BB5" s="3"/>
-      <c r="BC5" s="3"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="6"/>
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="6"/>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -901,34 +917,34 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="3" t="s">
+      <c r="AF6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3" t="s">
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="3"/>
-      <c r="BA6" s="3"/>
-      <c r="BB6" s="3"/>
-      <c r="BC6" s="3"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="6"/>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="6"/>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -960,46 +976,46 @@
       <c r="S7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="T7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
       <c r="AJ7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1258,24 +1274,24 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="3" t="s">
+      <c r="Z12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3" t="s">
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
       <c r="AP12" s="1"/>
@@ -1298,13 +1314,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1318,27 +1334,27 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="3" t="s">
+      <c r="U13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
@@ -1366,46 +1382,46 @@
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
       <c r="T14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
@@ -1429,42 +1445,42 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
@@ -1504,24 +1520,24 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3" t="s">
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
@@ -1557,34 +1573,34 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3" t="s">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
@@ -1629,26 +1645,26 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="4"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
@@ -1978,24 +1994,24 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3" t="s">
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
@@ -2031,34 +2047,34 @@
         <v>0</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
@@ -2099,29 +2115,29 @@
       <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
@@ -2161,9 +2177,9 @@
         <v>12</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2184,18 +2200,18 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="4"/>
-      <c r="AM27" s="4"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
@@ -2245,24 +2261,24 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
-      <c r="AB28" s="3" t="s">
+      <c r="AB28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3" t="s">
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
@@ -2288,13 +2304,13 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -2305,27 +2321,27 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="3" t="s">
+      <c r="W29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
-      <c r="AO29" s="3"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
       <c r="AP29" s="1"/>
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
@@ -2353,46 +2369,46 @@
       <c r="E30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
       <c r="V30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
-      <c r="AK30" s="3"/>
-      <c r="AL30" s="3"/>
-      <c r="AM30" s="3"/>
-      <c r="AN30" s="3"/>
-      <c r="AO30" s="3"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
       <c r="AP30" s="1"/>
       <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
@@ -2713,24 +2729,24 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3" t="s">
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
@@ -2766,34 +2782,34 @@
         <v>0</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3" t="s">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
@@ -2834,29 +2850,29 @@
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
@@ -2896,9 +2912,9 @@
         <v>12</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2919,18 +2935,18 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="4"/>
-      <c r="AM39" s="4"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
       <c r="AN39" s="1"/>
       <c r="AO39" s="1"/>
       <c r="AP39" s="1"/>
@@ -3019,13 +3035,13 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -3033,24 +3049,24 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
-      <c r="T41" s="3" t="s">
+      <c r="T41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3" t="s">
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
-      <c r="AG41" s="3"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
@@ -3086,36 +3102,36 @@
       <c r="E42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="3" t="s">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
-      <c r="AG42" s="3"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
@@ -3156,27 +3172,27 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
-      <c r="AG43" s="3"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6"/>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
@@ -3260,13 +3276,2517 @@
     <row r="47" spans="1:55" x14ac:dyDescent="0.25">
       <c r="R47" s="2"/>
     </row>
+    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5">
+        <v>2</v>
+      </c>
+      <c r="D50" s="5">
+        <v>3</v>
+      </c>
+      <c r="E50" s="5">
+        <v>4</v>
+      </c>
+      <c r="F50" s="5">
+        <v>5</v>
+      </c>
+      <c r="G50" s="5">
+        <v>6</v>
+      </c>
+      <c r="H50" s="5">
+        <v>7</v>
+      </c>
+      <c r="I50" s="5">
+        <v>8</v>
+      </c>
+      <c r="J50" s="5">
+        <v>9</v>
+      </c>
+      <c r="K50" s="5">
+        <v>10</v>
+      </c>
+      <c r="L50" s="5">
+        <v>11</v>
+      </c>
+      <c r="M50" s="5">
+        <v>12</v>
+      </c>
+      <c r="N50" s="5">
+        <v>13</v>
+      </c>
+      <c r="O50" s="5">
+        <v>14</v>
+      </c>
+      <c r="P50" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>16</v>
+      </c>
+      <c r="R50" s="5">
+        <v>17</v>
+      </c>
+      <c r="S50" s="5">
+        <v>18</v>
+      </c>
+      <c r="T50" s="5">
+        <v>19</v>
+      </c>
+      <c r="U50" s="5">
+        <v>20</v>
+      </c>
+      <c r="V50" s="5">
+        <v>21</v>
+      </c>
+      <c r="W50" s="5">
+        <v>22</v>
+      </c>
+      <c r="X50" s="5">
+        <v>23</v>
+      </c>
+      <c r="Y50" s="5">
+        <v>24</v>
+      </c>
+      <c r="Z50" s="5">
+        <v>25</v>
+      </c>
+      <c r="AA50" s="5">
+        <v>26</v>
+      </c>
+      <c r="AB50" s="5">
+        <v>27</v>
+      </c>
+      <c r="AC50" s="5">
+        <v>28</v>
+      </c>
+      <c r="AD50" s="5">
+        <v>29</v>
+      </c>
+      <c r="AE50" s="5">
+        <v>30</v>
+      </c>
+      <c r="AF50" s="5">
+        <v>31</v>
+      </c>
+      <c r="AG50" s="5">
+        <v>32</v>
+      </c>
+      <c r="AH50" s="5">
+        <v>33</v>
+      </c>
+      <c r="AI50" s="5">
+        <v>34</v>
+      </c>
+      <c r="AJ50" s="5">
+        <v>35</v>
+      </c>
+      <c r="AK50" s="5">
+        <v>36</v>
+      </c>
+      <c r="AL50" s="5">
+        <v>37</v>
+      </c>
+      <c r="AM50" s="5">
+        <v>38</v>
+      </c>
+      <c r="AN50" s="5">
+        <v>39</v>
+      </c>
+      <c r="AO50" s="5">
+        <v>40</v>
+      </c>
+      <c r="AP50" s="5">
+        <v>41</v>
+      </c>
+      <c r="AQ50" s="5">
+        <v>42</v>
+      </c>
+      <c r="AR50" s="5">
+        <v>43</v>
+      </c>
+      <c r="AS50" s="5">
+        <v>44</v>
+      </c>
+      <c r="AT50" s="5">
+        <v>45</v>
+      </c>
+      <c r="AU50" s="5">
+        <v>46</v>
+      </c>
+      <c r="AV50" s="5">
+        <v>47</v>
+      </c>
+      <c r="AW50" s="5">
+        <v>48</v>
+      </c>
+      <c r="AX50" s="5">
+        <v>49</v>
+      </c>
+      <c r="AY50" s="5">
+        <v>50</v>
+      </c>
+      <c r="AZ50" s="5">
+        <v>51</v>
+      </c>
+      <c r="BA50" s="5">
+        <v>52</v>
+      </c>
+      <c r="BB50" s="5">
+        <v>53</v>
+      </c>
+      <c r="BC50" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="6"/>
+      <c r="AG51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH51" s="6"/>
+      <c r="AI51" s="6"/>
+      <c r="AJ51" s="6"/>
+      <c r="AK51" s="6"/>
+      <c r="AL51" s="6"/>
+      <c r="AM51" s="6"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="1"/>
+    </row>
+    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6"/>
+      <c r="AG52" s="6"/>
+      <c r="AH52" s="6"/>
+      <c r="AI52" s="6"/>
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="6"/>
+      <c r="AL52" s="6"/>
+      <c r="AM52" s="6"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
+    </row>
+    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="6"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+      <c r="AT53" s="1"/>
+      <c r="AU53" s="1"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="1"/>
+      <c r="AX53" s="1"/>
+      <c r="AY53" s="1"/>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="1"/>
+      <c r="BB53" s="1"/>
+      <c r="BC53" s="1"/>
+    </row>
+    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AG54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH54" s="6"/>
+      <c r="AI54" s="6"/>
+      <c r="AJ54" s="6"/>
+      <c r="AK54" s="6"/>
+      <c r="AL54" s="6"/>
+      <c r="AM54" s="6"/>
+      <c r="AN54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO54" s="6"/>
+      <c r="AP54" s="6"/>
+      <c r="AQ54" s="6"/>
+      <c r="AR54" s="6"/>
+      <c r="AS54" s="6"/>
+      <c r="AT54" s="6"/>
+    </row>
+    <row r="55" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
+      <c r="AG55" s="6"/>
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="6"/>
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="6"/>
+      <c r="AL55" s="6"/>
+      <c r="AM55" s="6"/>
+      <c r="AN55" s="6"/>
+      <c r="AO55" s="6"/>
+      <c r="AP55" s="6"/>
+      <c r="AQ55" s="6"/>
+      <c r="AR55" s="6"/>
+      <c r="AS55" s="6"/>
+      <c r="AT55" s="6"/>
+    </row>
+    <row r="56" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AG56" s="6"/>
+      <c r="AH56" s="6"/>
+      <c r="AI56" s="6"/>
+      <c r="AJ56" s="6"/>
+      <c r="AK56" s="6"/>
+      <c r="AL56" s="6"/>
+      <c r="AM56" s="6"/>
+      <c r="AN56" s="6"/>
+      <c r="AO56" s="6"/>
+      <c r="AP56" s="6"/>
+      <c r="AQ56" s="6"/>
+      <c r="AR56" s="6"/>
+      <c r="AS56" s="6"/>
+      <c r="AT56" s="6"/>
+    </row>
+    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="1"/>
+      <c r="AM57" s="1"/>
+      <c r="AN57" s="1"/>
+      <c r="AO57" s="1"/>
+      <c r="AP57" s="1"/>
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="1"/>
+      <c r="AT57" s="1"/>
+      <c r="AU57" s="1"/>
+      <c r="AV57" s="1"/>
+      <c r="AW57" s="1"/>
+      <c r="AX57" s="1"/>
+      <c r="AY57" s="1"/>
+      <c r="AZ57" s="1"/>
+      <c r="BA57" s="1"/>
+      <c r="BB57" s="1"/>
+      <c r="BC57" s="1"/>
+    </row>
+    <row r="63" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5">
+        <v>1</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2</v>
+      </c>
+      <c r="D63" s="5">
+        <v>3</v>
+      </c>
+      <c r="E63" s="5">
+        <v>4</v>
+      </c>
+      <c r="F63" s="5">
+        <v>5</v>
+      </c>
+      <c r="G63" s="5">
+        <v>6</v>
+      </c>
+      <c r="H63" s="5">
+        <v>7</v>
+      </c>
+      <c r="I63" s="5">
+        <v>8</v>
+      </c>
+      <c r="J63" s="5">
+        <v>9</v>
+      </c>
+      <c r="K63" s="5">
+        <v>10</v>
+      </c>
+      <c r="L63" s="5">
+        <v>11</v>
+      </c>
+      <c r="M63" s="5">
+        <v>12</v>
+      </c>
+      <c r="N63" s="5">
+        <v>13</v>
+      </c>
+      <c r="O63" s="5">
+        <v>14</v>
+      </c>
+      <c r="P63" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>16</v>
+      </c>
+      <c r="R63" s="5">
+        <v>17</v>
+      </c>
+      <c r="S63" s="5">
+        <v>18</v>
+      </c>
+      <c r="T63" s="5">
+        <v>19</v>
+      </c>
+      <c r="U63" s="5">
+        <v>20</v>
+      </c>
+      <c r="V63" s="5">
+        <v>21</v>
+      </c>
+      <c r="W63" s="5">
+        <v>22</v>
+      </c>
+      <c r="X63" s="5">
+        <v>23</v>
+      </c>
+      <c r="Y63" s="5">
+        <v>24</v>
+      </c>
+      <c r="Z63" s="5">
+        <v>25</v>
+      </c>
+      <c r="AA63" s="5">
+        <v>26</v>
+      </c>
+      <c r="AB63" s="5">
+        <v>27</v>
+      </c>
+      <c r="AC63" s="5">
+        <v>28</v>
+      </c>
+      <c r="AD63" s="5">
+        <v>29</v>
+      </c>
+      <c r="AE63" s="5">
+        <v>30</v>
+      </c>
+      <c r="AF63" s="5">
+        <v>31</v>
+      </c>
+      <c r="AG63" s="5">
+        <v>32</v>
+      </c>
+      <c r="AH63" s="5">
+        <v>33</v>
+      </c>
+      <c r="AI63" s="5">
+        <v>34</v>
+      </c>
+      <c r="AJ63" s="5">
+        <v>35</v>
+      </c>
+      <c r="AK63" s="5">
+        <v>36</v>
+      </c>
+      <c r="AL63" s="5">
+        <v>37</v>
+      </c>
+      <c r="AM63" s="5">
+        <v>38</v>
+      </c>
+      <c r="AN63" s="5">
+        <v>39</v>
+      </c>
+      <c r="AO63" s="5">
+        <v>40</v>
+      </c>
+      <c r="AP63" s="5">
+        <v>41</v>
+      </c>
+      <c r="AQ63" s="5">
+        <v>42</v>
+      </c>
+      <c r="AR63" s="5">
+        <v>43</v>
+      </c>
+      <c r="AS63" s="5">
+        <v>44</v>
+      </c>
+      <c r="AT63" s="5">
+        <v>45</v>
+      </c>
+      <c r="AU63" s="5">
+        <v>46</v>
+      </c>
+      <c r="AV63" s="5">
+        <v>47</v>
+      </c>
+      <c r="AW63" s="5">
+        <v>48</v>
+      </c>
+      <c r="AX63" s="5">
+        <v>49</v>
+      </c>
+      <c r="AY63" s="5">
+        <v>50</v>
+      </c>
+      <c r="AZ63" s="5">
+        <v>51</v>
+      </c>
+      <c r="BA63" s="5">
+        <v>52</v>
+      </c>
+      <c r="BB63" s="5">
+        <v>53</v>
+      </c>
+      <c r="BC63" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
+      <c r="AF64" s="6"/>
+      <c r="AG64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH64" s="6"/>
+      <c r="AI64" s="6"/>
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="6"/>
+      <c r="AL64" s="6"/>
+      <c r="AM64" s="6"/>
+      <c r="AN64" s="1"/>
+      <c r="AO64" s="1"/>
+      <c r="AP64" s="1"/>
+      <c r="AQ64" s="1"/>
+      <c r="AR64" s="1"/>
+      <c r="AS64" s="1"/>
+      <c r="AT64" s="1"/>
+      <c r="AU64" s="1"/>
+      <c r="AV64" s="1"/>
+      <c r="AW64" s="1"/>
+      <c r="AX64" s="1"/>
+      <c r="AY64" s="1"/>
+      <c r="AZ64" s="1"/>
+      <c r="BA64" s="1"/>
+      <c r="BB64" s="1"/>
+      <c r="BC64" s="1"/>
+    </row>
+    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6"/>
+      <c r="AA65" s="6"/>
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="6"/>
+      <c r="AD65" s="6"/>
+      <c r="AE65" s="6"/>
+      <c r="AF65" s="6"/>
+      <c r="AG65" s="6"/>
+      <c r="AH65" s="6"/>
+      <c r="AI65" s="6"/>
+      <c r="AJ65" s="6"/>
+      <c r="AK65" s="6"/>
+      <c r="AL65" s="6"/>
+      <c r="AM65" s="6"/>
+      <c r="AN65" s="1"/>
+      <c r="AO65" s="1"/>
+      <c r="AP65" s="1"/>
+      <c r="AQ65" s="1"/>
+      <c r="AR65" s="1"/>
+      <c r="AS65" s="1"/>
+      <c r="AT65" s="1"/>
+      <c r="AU65" s="1"/>
+      <c r="AV65" s="1"/>
+      <c r="AW65" s="1"/>
+      <c r="AX65" s="1"/>
+      <c r="AY65" s="1"/>
+      <c r="AZ65" s="1"/>
+      <c r="BA65" s="1"/>
+      <c r="BB65" s="1"/>
+      <c r="BC65" s="1"/>
+    </row>
+    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="6"/>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
+      <c r="AF66" s="6"/>
+      <c r="AG66" s="6"/>
+      <c r="AH66" s="6"/>
+      <c r="AI66" s="6"/>
+      <c r="AJ66" s="6"/>
+      <c r="AK66" s="6"/>
+      <c r="AL66" s="6"/>
+      <c r="AM66" s="6"/>
+      <c r="AN66" s="1"/>
+      <c r="AO66" s="1"/>
+      <c r="AP66" s="1"/>
+      <c r="AQ66" s="1"/>
+      <c r="AR66" s="1"/>
+      <c r="AS66" s="1"/>
+      <c r="AT66" s="1"/>
+      <c r="AU66" s="1"/>
+      <c r="AV66" s="1"/>
+      <c r="AW66" s="1"/>
+      <c r="AX66" s="1"/>
+      <c r="AY66" s="1"/>
+      <c r="AZ66" s="1"/>
+      <c r="BA66" s="1"/>
+      <c r="BB66" s="1"/>
+      <c r="BC66" s="1"/>
+    </row>
+    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3"/>
+      <c r="AH67" s="3"/>
+      <c r="AI67" s="3"/>
+      <c r="AJ67" s="3"/>
+      <c r="AK67" s="3"/>
+      <c r="AL67" s="3"/>
+      <c r="AM67" s="3"/>
+      <c r="AN67" s="1"/>
+      <c r="AO67" s="1"/>
+      <c r="AP67" s="1"/>
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="1"/>
+      <c r="AT67" s="1"/>
+      <c r="AU67" s="1"/>
+      <c r="AV67" s="1"/>
+      <c r="AW67" s="1"/>
+      <c r="AX67" s="1"/>
+      <c r="AY67" s="1"/>
+      <c r="AZ67" s="1"/>
+      <c r="BA67" s="1"/>
+      <c r="BB67" s="1"/>
+      <c r="BC67" s="1"/>
+    </row>
+    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="1"/>
+      <c r="AO68" s="1"/>
+      <c r="AP68" s="1"/>
+      <c r="AQ68" s="1"/>
+      <c r="AR68" s="1"/>
+      <c r="AS68" s="1"/>
+      <c r="AT68" s="1"/>
+      <c r="AU68" s="1"/>
+      <c r="AV68" s="1"/>
+      <c r="AW68" s="1"/>
+      <c r="AX68" s="1"/>
+      <c r="AY68" s="1"/>
+      <c r="AZ68" s="1"/>
+      <c r="BA68" s="1"/>
+      <c r="BB68" s="1"/>
+      <c r="BC68" s="1"/>
+    </row>
+    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="6"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AT69" s="1"/>
+      <c r="AU69" s="1"/>
+      <c r="AV69" s="1"/>
+      <c r="AW69" s="1"/>
+      <c r="AX69" s="1"/>
+      <c r="AY69" s="1"/>
+      <c r="AZ69" s="1"/>
+      <c r="BA69" s="1"/>
+      <c r="BB69" s="1"/>
+      <c r="BC69" s="1"/>
+    </row>
+    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="6"/>
+      <c r="AF70" s="4"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="1"/>
+      <c r="AO70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
+      <c r="AS70" s="1"/>
+      <c r="AT70" s="1"/>
+      <c r="AU70" s="1"/>
+      <c r="AV70" s="1"/>
+      <c r="AW70" s="1"/>
+      <c r="AX70" s="1"/>
+      <c r="AY70" s="1"/>
+      <c r="AZ70" s="1"/>
+      <c r="BA70" s="1"/>
+      <c r="BB70" s="1"/>
+      <c r="BC70" s="1"/>
+    </row>
+    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="1"/>
+      <c r="AU71" s="1"/>
+      <c r="AV71" s="1"/>
+      <c r="AW71" s="1"/>
+      <c r="AX71" s="1"/>
+      <c r="AY71" s="1"/>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="1"/>
+      <c r="BB71" s="1"/>
+      <c r="BC71" s="1"/>
+    </row>
+    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="1"/>
+      <c r="AO72" s="1"/>
+      <c r="AP72" s="1"/>
+      <c r="AQ72" s="1"/>
+      <c r="AR72" s="1"/>
+      <c r="AS72" s="1"/>
+      <c r="AT72" s="1"/>
+      <c r="AU72" s="1"/>
+      <c r="AV72" s="1"/>
+      <c r="AW72" s="1"/>
+      <c r="AX72" s="1"/>
+      <c r="AY72" s="1"/>
+      <c r="AZ72" s="1"/>
+      <c r="BA72" s="1"/>
+      <c r="BB72" s="1"/>
+      <c r="BC72" s="1"/>
+    </row>
+    <row r="82" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5">
+        <v>1</v>
+      </c>
+      <c r="C82" s="5">
+        <v>2</v>
+      </c>
+      <c r="D82" s="5">
+        <v>3</v>
+      </c>
+      <c r="E82" s="5">
+        <v>4</v>
+      </c>
+      <c r="F82" s="5">
+        <v>5</v>
+      </c>
+      <c r="G82" s="5">
+        <v>6</v>
+      </c>
+      <c r="H82" s="5">
+        <v>7</v>
+      </c>
+      <c r="I82" s="5">
+        <v>8</v>
+      </c>
+      <c r="J82" s="5">
+        <v>9</v>
+      </c>
+      <c r="K82" s="5">
+        <v>10</v>
+      </c>
+      <c r="L82" s="5">
+        <v>11</v>
+      </c>
+      <c r="M82" s="5">
+        <v>12</v>
+      </c>
+      <c r="N82" s="5">
+        <v>13</v>
+      </c>
+      <c r="O82" s="5">
+        <v>14</v>
+      </c>
+      <c r="P82" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q82" s="5">
+        <v>16</v>
+      </c>
+      <c r="R82" s="5">
+        <v>17</v>
+      </c>
+      <c r="S82" s="5">
+        <v>18</v>
+      </c>
+      <c r="T82" s="5">
+        <v>19</v>
+      </c>
+      <c r="U82" s="5">
+        <v>20</v>
+      </c>
+      <c r="V82" s="5">
+        <v>21</v>
+      </c>
+      <c r="W82" s="5">
+        <v>22</v>
+      </c>
+      <c r="X82" s="5">
+        <v>23</v>
+      </c>
+      <c r="Y82" s="5">
+        <v>24</v>
+      </c>
+      <c r="Z82" s="5">
+        <v>25</v>
+      </c>
+      <c r="AA82" s="5">
+        <v>26</v>
+      </c>
+      <c r="AB82" s="5">
+        <v>27</v>
+      </c>
+      <c r="AC82" s="5">
+        <v>28</v>
+      </c>
+      <c r="AD82" s="5">
+        <v>29</v>
+      </c>
+      <c r="AE82" s="5">
+        <v>30</v>
+      </c>
+      <c r="AF82" s="5">
+        <v>31</v>
+      </c>
+      <c r="AG82" s="5">
+        <v>32</v>
+      </c>
+      <c r="AH82" s="5">
+        <v>33</v>
+      </c>
+      <c r="AI82" s="5">
+        <v>34</v>
+      </c>
+      <c r="AJ82" s="5">
+        <v>35</v>
+      </c>
+      <c r="AK82" s="5">
+        <v>36</v>
+      </c>
+      <c r="AL82" s="5">
+        <v>37</v>
+      </c>
+      <c r="AM82" s="5">
+        <v>38</v>
+      </c>
+      <c r="AN82" s="5">
+        <v>39</v>
+      </c>
+      <c r="AO82" s="5">
+        <v>40</v>
+      </c>
+      <c r="AP82" s="5">
+        <v>41</v>
+      </c>
+      <c r="AQ82" s="5">
+        <v>42</v>
+      </c>
+      <c r="AR82" s="5">
+        <v>43</v>
+      </c>
+      <c r="AS82" s="5">
+        <v>44</v>
+      </c>
+      <c r="AT82" s="5">
+        <v>45</v>
+      </c>
+      <c r="AU82" s="5">
+        <v>46</v>
+      </c>
+      <c r="AV82" s="5">
+        <v>47</v>
+      </c>
+      <c r="AW82" s="5">
+        <v>48</v>
+      </c>
+      <c r="AX82" s="5">
+        <v>49</v>
+      </c>
+      <c r="AY82" s="5">
+        <v>50</v>
+      </c>
+      <c r="AZ82" s="5">
+        <v>51</v>
+      </c>
+      <c r="BA82" s="5">
+        <v>52</v>
+      </c>
+      <c r="BB82" s="5">
+        <v>53</v>
+      </c>
+      <c r="BC82" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA83" s="6"/>
+      <c r="AB83" s="6"/>
+      <c r="AC83" s="6"/>
+      <c r="AD83" s="6"/>
+      <c r="AE83" s="6"/>
+      <c r="AF83" s="6"/>
+      <c r="AG83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH83" s="6"/>
+      <c r="AI83" s="6"/>
+      <c r="AJ83" s="6"/>
+      <c r="AK83" s="6"/>
+      <c r="AL83" s="6"/>
+      <c r="AM83" s="6"/>
+      <c r="AN83" s="1"/>
+      <c r="AO83" s="1"/>
+      <c r="AP83" s="1"/>
+      <c r="AQ83" s="1"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="1"/>
+      <c r="AT83" s="1"/>
+      <c r="AU83" s="1"/>
+      <c r="AV83" s="1"/>
+      <c r="AW83" s="1"/>
+      <c r="AX83" s="1"/>
+      <c r="AY83" s="1"/>
+      <c r="AZ83" s="1"/>
+      <c r="BA83" s="1"/>
+      <c r="BB83" s="1"/>
+      <c r="BC83" s="1"/>
+    </row>
+    <row r="84" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
+      <c r="Z84" s="6"/>
+      <c r="AA84" s="6"/>
+      <c r="AB84" s="6"/>
+      <c r="AC84" s="6"/>
+      <c r="AD84" s="6"/>
+      <c r="AE84" s="6"/>
+      <c r="AF84" s="6"/>
+      <c r="AG84" s="6"/>
+      <c r="AH84" s="6"/>
+      <c r="AI84" s="6"/>
+      <c r="AJ84" s="6"/>
+      <c r="AK84" s="6"/>
+      <c r="AL84" s="6"/>
+      <c r="AM84" s="6"/>
+      <c r="AN84" s="1"/>
+      <c r="AO84" s="1"/>
+      <c r="AP84" s="1"/>
+      <c r="AQ84" s="1"/>
+      <c r="AR84" s="1"/>
+      <c r="AS84" s="1"/>
+      <c r="AT84" s="1"/>
+      <c r="AU84" s="1"/>
+      <c r="AV84" s="1"/>
+      <c r="AW84" s="1"/>
+      <c r="AX84" s="1"/>
+      <c r="AY84" s="1"/>
+      <c r="AZ84" s="1"/>
+      <c r="BA84" s="1"/>
+      <c r="BB84" s="1"/>
+      <c r="BC84" s="1"/>
+    </row>
+    <row r="85" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="6"/>
+      <c r="AA85" s="6"/>
+      <c r="AB85" s="6"/>
+      <c r="AC85" s="6"/>
+      <c r="AD85" s="6"/>
+      <c r="AE85" s="6"/>
+      <c r="AF85" s="6"/>
+      <c r="AG85" s="6"/>
+      <c r="AH85" s="6"/>
+      <c r="AI85" s="6"/>
+      <c r="AJ85" s="6"/>
+      <c r="AK85" s="6"/>
+      <c r="AL85" s="6"/>
+      <c r="AM85" s="6"/>
+      <c r="AN85" s="1"/>
+      <c r="AO85" s="1"/>
+      <c r="AP85" s="1"/>
+      <c r="AQ85" s="1"/>
+      <c r="AR85" s="1"/>
+      <c r="AS85" s="1"/>
+      <c r="AT85" s="1"/>
+      <c r="AU85" s="1"/>
+      <c r="AV85" s="1"/>
+      <c r="AW85" s="1"/>
+      <c r="AX85" s="1"/>
+      <c r="AY85" s="1"/>
+      <c r="AZ85" s="1"/>
+      <c r="BA85" s="1"/>
+      <c r="BB85" s="1"/>
+      <c r="BC85" s="1"/>
+    </row>
+    <row r="86" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AG86" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH86" s="6"/>
+      <c r="AI86" s="6"/>
+      <c r="AJ86" s="6"/>
+      <c r="AK86" s="6"/>
+      <c r="AL86" s="6"/>
+      <c r="AM86" s="6"/>
+      <c r="AN86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO86" s="6"/>
+      <c r="AP86" s="6"/>
+      <c r="AQ86" s="6"/>
+      <c r="AR86" s="6"/>
+      <c r="AS86" s="6"/>
+      <c r="AT86" s="6"/>
+    </row>
+    <row r="87" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="6"/>
+      <c r="AB87" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC87" s="6"/>
+      <c r="AD87" s="6"/>
+      <c r="AE87" s="6"/>
+      <c r="AF87" s="6"/>
+      <c r="AG87" s="6"/>
+      <c r="AH87" s="6"/>
+      <c r="AI87" s="6"/>
+      <c r="AJ87" s="6"/>
+      <c r="AK87" s="6"/>
+      <c r="AL87" s="6"/>
+      <c r="AM87" s="6"/>
+      <c r="AN87" s="6"/>
+      <c r="AO87" s="6"/>
+      <c r="AP87" s="6"/>
+      <c r="AQ87" s="6"/>
+      <c r="AR87" s="6"/>
+      <c r="AS87" s="6"/>
+      <c r="AT87" s="6"/>
+    </row>
+    <row r="88" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="6"/>
+      <c r="AA88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB88" s="6"/>
+      <c r="AC88" s="6"/>
+      <c r="AD88" s="6"/>
+      <c r="AE88" s="6"/>
+      <c r="AF88" s="6"/>
+      <c r="AG88" s="6"/>
+      <c r="AH88" s="6"/>
+      <c r="AI88" s="6"/>
+      <c r="AJ88" s="6"/>
+      <c r="AK88" s="6"/>
+      <c r="AL88" s="6"/>
+      <c r="AM88" s="6"/>
+      <c r="AN88" s="6"/>
+      <c r="AO88" s="6"/>
+      <c r="AP88" s="6"/>
+      <c r="AQ88" s="6"/>
+      <c r="AR88" s="6"/>
+      <c r="AS88" s="6"/>
+      <c r="AT88" s="6"/>
+    </row>
+    <row r="89" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
+      <c r="AH89" s="1"/>
+      <c r="AI89" s="1"/>
+      <c r="AJ89" s="1"/>
+      <c r="AK89" s="1"/>
+      <c r="AL89" s="1"/>
+      <c r="AM89" s="1"/>
+      <c r="AN89" s="1"/>
+      <c r="AO89" s="1"/>
+      <c r="AP89" s="1"/>
+      <c r="AQ89" s="1"/>
+      <c r="AR89" s="1"/>
+      <c r="AS89" s="1"/>
+      <c r="AT89" s="1"/>
+      <c r="AU89" s="1"/>
+      <c r="AV89" s="1"/>
+      <c r="AW89" s="1"/>
+      <c r="AX89" s="1"/>
+      <c r="AY89" s="1"/>
+      <c r="AZ89" s="1"/>
+      <c r="BA89" s="1"/>
+      <c r="BB89" s="1"/>
+      <c r="BC89" s="1"/>
+    </row>
+    <row r="92" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5">
+        <v>1</v>
+      </c>
+      <c r="C92" s="5">
+        <v>2</v>
+      </c>
+      <c r="D92" s="5">
+        <v>3</v>
+      </c>
+      <c r="E92" s="5">
+        <v>4</v>
+      </c>
+      <c r="F92" s="5">
+        <v>5</v>
+      </c>
+      <c r="G92" s="5">
+        <v>6</v>
+      </c>
+      <c r="H92" s="5">
+        <v>7</v>
+      </c>
+      <c r="I92" s="5">
+        <v>8</v>
+      </c>
+      <c r="J92" s="5">
+        <v>9</v>
+      </c>
+      <c r="K92" s="5">
+        <v>10</v>
+      </c>
+      <c r="L92" s="5">
+        <v>11</v>
+      </c>
+      <c r="M92" s="5">
+        <v>12</v>
+      </c>
+      <c r="N92" s="5">
+        <v>13</v>
+      </c>
+      <c r="O92" s="5">
+        <v>14</v>
+      </c>
+      <c r="P92" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q92" s="5">
+        <v>16</v>
+      </c>
+      <c r="R92" s="5">
+        <v>17</v>
+      </c>
+      <c r="S92" s="5">
+        <v>18</v>
+      </c>
+      <c r="T92" s="5">
+        <v>19</v>
+      </c>
+      <c r="U92" s="5">
+        <v>20</v>
+      </c>
+      <c r="V92" s="5">
+        <v>21</v>
+      </c>
+      <c r="W92" s="5">
+        <v>22</v>
+      </c>
+      <c r="X92" s="5">
+        <v>23</v>
+      </c>
+      <c r="Y92" s="5">
+        <v>24</v>
+      </c>
+      <c r="Z92" s="5">
+        <v>25</v>
+      </c>
+      <c r="AA92" s="5">
+        <v>26</v>
+      </c>
+      <c r="AB92" s="5">
+        <v>27</v>
+      </c>
+      <c r="AC92" s="5">
+        <v>28</v>
+      </c>
+      <c r="AD92" s="5">
+        <v>29</v>
+      </c>
+      <c r="AE92" s="5">
+        <v>30</v>
+      </c>
+      <c r="AF92" s="5">
+        <v>31</v>
+      </c>
+      <c r="AG92" s="5">
+        <v>32</v>
+      </c>
+      <c r="AH92" s="5">
+        <v>33</v>
+      </c>
+      <c r="AI92" s="5">
+        <v>34</v>
+      </c>
+      <c r="AJ92" s="5">
+        <v>35</v>
+      </c>
+      <c r="AK92" s="5">
+        <v>36</v>
+      </c>
+      <c r="AL92" s="5">
+        <v>37</v>
+      </c>
+      <c r="AM92" s="5">
+        <v>38</v>
+      </c>
+      <c r="AN92" s="5">
+        <v>39</v>
+      </c>
+      <c r="AO92" s="5">
+        <v>40</v>
+      </c>
+      <c r="AP92" s="5">
+        <v>41</v>
+      </c>
+      <c r="AQ92" s="5">
+        <v>42</v>
+      </c>
+      <c r="AR92" s="5">
+        <v>43</v>
+      </c>
+      <c r="AS92" s="5">
+        <v>44</v>
+      </c>
+      <c r="AT92" s="5">
+        <v>45</v>
+      </c>
+      <c r="AU92" s="5">
+        <v>46</v>
+      </c>
+      <c r="AV92" s="5">
+        <v>47</v>
+      </c>
+      <c r="AW92" s="5">
+        <v>48</v>
+      </c>
+      <c r="AX92" s="5">
+        <v>49</v>
+      </c>
+      <c r="AY92" s="5">
+        <v>50</v>
+      </c>
+      <c r="AZ92" s="5">
+        <v>51</v>
+      </c>
+      <c r="BA92" s="5">
+        <v>52</v>
+      </c>
+      <c r="BB92" s="5">
+        <v>53</v>
+      </c>
+      <c r="BC92" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB93" s="6"/>
+      <c r="AC93" s="6"/>
+      <c r="AD93" s="6"/>
+      <c r="AE93" s="6"/>
+      <c r="AF93" s="6"/>
+      <c r="AG93" s="6"/>
+      <c r="AH93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI93" s="6"/>
+      <c r="AJ93" s="6"/>
+      <c r="AK93" s="6"/>
+      <c r="AL93" s="6"/>
+      <c r="AM93" s="6"/>
+      <c r="AN93" s="6"/>
+      <c r="AO93" s="1"/>
+      <c r="AP93" s="1"/>
+      <c r="AQ93" s="1"/>
+      <c r="AR93" s="1"/>
+      <c r="AS93" s="1"/>
+      <c r="AT93" s="1"/>
+      <c r="AU93" s="1"/>
+      <c r="AV93" s="1"/>
+      <c r="AW93" s="1"/>
+      <c r="AX93" s="1"/>
+      <c r="AY93" s="1"/>
+      <c r="AZ93" s="1"/>
+      <c r="BA93" s="1"/>
+      <c r="BB93" s="1"/>
+      <c r="BC93" s="1"/>
+    </row>
+    <row r="94" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W94" s="6"/>
+      <c r="X94" s="6"/>
+      <c r="Y94" s="6"/>
+      <c r="Z94" s="6"/>
+      <c r="AA94" s="6"/>
+      <c r="AB94" s="6"/>
+      <c r="AC94" s="6"/>
+      <c r="AD94" s="6"/>
+      <c r="AE94" s="6"/>
+      <c r="AF94" s="6"/>
+      <c r="AG94" s="6"/>
+      <c r="AH94" s="6"/>
+      <c r="AI94" s="6"/>
+      <c r="AJ94" s="6"/>
+      <c r="AK94" s="6"/>
+      <c r="AL94" s="6"/>
+      <c r="AM94" s="6"/>
+      <c r="AN94" s="6"/>
+      <c r="AO94" s="1"/>
+      <c r="AP94" s="1"/>
+      <c r="AQ94" s="1"/>
+      <c r="AR94" s="1"/>
+      <c r="AS94" s="1"/>
+      <c r="AT94" s="1"/>
+      <c r="AU94" s="1"/>
+      <c r="AV94" s="1"/>
+      <c r="AW94" s="1"/>
+      <c r="AX94" s="1"/>
+      <c r="AY94" s="1"/>
+      <c r="AZ94" s="1"/>
+      <c r="BA94" s="1"/>
+      <c r="BB94" s="1"/>
+      <c r="BC94" s="1"/>
+    </row>
+    <row r="95" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U95" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
+      <c r="Y95" s="6"/>
+      <c r="Z95" s="6"/>
+      <c r="AA95" s="6"/>
+      <c r="AB95" s="6"/>
+      <c r="AC95" s="6"/>
+      <c r="AD95" s="6"/>
+      <c r="AE95" s="6"/>
+      <c r="AF95" s="6"/>
+      <c r="AG95" s="6"/>
+      <c r="AH95" s="6"/>
+      <c r="AI95" s="6"/>
+      <c r="AJ95" s="6"/>
+      <c r="AK95" s="6"/>
+      <c r="AL95" s="6"/>
+      <c r="AM95" s="6"/>
+      <c r="AN95" s="6"/>
+      <c r="AO95" s="1"/>
+      <c r="AP95" s="1"/>
+      <c r="AQ95" s="1"/>
+      <c r="AR95" s="1"/>
+      <c r="AS95" s="1"/>
+      <c r="AT95" s="1"/>
+      <c r="AU95" s="1"/>
+      <c r="AV95" s="1"/>
+      <c r="AW95" s="1"/>
+      <c r="AX95" s="1"/>
+      <c r="AY95" s="1"/>
+      <c r="AZ95" s="1"/>
+      <c r="BA95" s="1"/>
+      <c r="BB95" s="1"/>
+      <c r="BC95" s="1"/>
+    </row>
+    <row r="96" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="1"/>
+      <c r="AF96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH96" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI96" s="6"/>
+      <c r="AJ96" s="6"/>
+      <c r="AK96" s="6"/>
+      <c r="AL96" s="6"/>
+      <c r="AM96" s="6"/>
+      <c r="AN96" s="6"/>
+      <c r="AO96" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP96" s="6"/>
+      <c r="AQ96" s="6"/>
+      <c r="AR96" s="6"/>
+      <c r="AS96" s="6"/>
+      <c r="AT96" s="6"/>
+      <c r="AU96" s="6"/>
+      <c r="AV96" s="1"/>
+      <c r="AW96" s="1"/>
+      <c r="AX96" s="1"/>
+      <c r="AY96" s="1"/>
+      <c r="AZ96" s="1"/>
+      <c r="BA96" s="1"/>
+      <c r="BB96" s="1"/>
+      <c r="BC96" s="1"/>
+    </row>
+    <row r="97" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y97" s="6"/>
+      <c r="Z97" s="6"/>
+      <c r="AA97" s="6"/>
+      <c r="AB97" s="6"/>
+      <c r="AC97" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD97" s="6"/>
+      <c r="AE97" s="6"/>
+      <c r="AF97" s="6"/>
+      <c r="AG97" s="6"/>
+      <c r="AH97" s="6"/>
+      <c r="AI97" s="6"/>
+      <c r="AJ97" s="6"/>
+      <c r="AK97" s="6"/>
+      <c r="AL97" s="6"/>
+      <c r="AM97" s="6"/>
+      <c r="AN97" s="6"/>
+      <c r="AO97" s="6"/>
+      <c r="AP97" s="6"/>
+      <c r="AQ97" s="6"/>
+      <c r="AR97" s="6"/>
+      <c r="AS97" s="6"/>
+      <c r="AT97" s="6"/>
+      <c r="AU97" s="6"/>
+      <c r="AV97" s="1"/>
+      <c r="AW97" s="1"/>
+      <c r="AX97" s="1"/>
+      <c r="AY97" s="1"/>
+      <c r="AZ97" s="1"/>
+      <c r="BA97" s="1"/>
+      <c r="BB97" s="1"/>
+      <c r="BC97" s="1"/>
+    </row>
+    <row r="98" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC98" s="6"/>
+      <c r="AD98" s="6"/>
+      <c r="AE98" s="6"/>
+      <c r="AF98" s="6"/>
+      <c r="AG98" s="6"/>
+      <c r="AH98" s="6"/>
+      <c r="AI98" s="6"/>
+      <c r="AJ98" s="6"/>
+      <c r="AK98" s="6"/>
+      <c r="AL98" s="6"/>
+      <c r="AM98" s="6"/>
+      <c r="AN98" s="6"/>
+      <c r="AO98" s="6"/>
+      <c r="AP98" s="6"/>
+      <c r="AQ98" s="6"/>
+      <c r="AR98" s="6"/>
+      <c r="AS98" s="6"/>
+      <c r="AT98" s="6"/>
+      <c r="AU98" s="6"/>
+      <c r="AV98" s="1"/>
+      <c r="AW98" s="1"/>
+      <c r="AX98" s="1"/>
+      <c r="AY98" s="1"/>
+      <c r="AZ98" s="1"/>
+      <c r="BA98" s="1"/>
+      <c r="BB98" s="1"/>
+      <c r="BC98" s="1"/>
+    </row>
+    <row r="99" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="1"/>
+      <c r="AF99" s="1"/>
+      <c r="AG99" s="1"/>
+      <c r="AH99" s="1"/>
+      <c r="AI99" s="1"/>
+      <c r="AJ99" s="1"/>
+      <c r="AK99" s="1"/>
+      <c r="AL99" s="1"/>
+      <c r="AM99" s="1"/>
+      <c r="AN99" s="1"/>
+      <c r="AO99" s="1"/>
+      <c r="AP99" s="1"/>
+      <c r="AQ99" s="1"/>
+      <c r="AR99" s="1"/>
+      <c r="AS99" s="1"/>
+      <c r="AT99" s="1"/>
+      <c r="AU99" s="1"/>
+      <c r="AV99" s="1"/>
+      <c r="AW99" s="1"/>
+      <c r="AX99" s="1"/>
+      <c r="AY99" s="1"/>
+      <c r="AZ99" s="1"/>
+      <c r="BA99" s="1"/>
+      <c r="BB99" s="1"/>
+      <c r="BC99" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="H37:L38"/>
+  <mergeCells count="74">
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="V94:Z95"/>
+    <mergeCell ref="D95:S95"/>
+    <mergeCell ref="AH96:AN98"/>
+    <mergeCell ref="AO96:AU98"/>
+    <mergeCell ref="X97:AB97"/>
+    <mergeCell ref="AC97:AG98"/>
+    <mergeCell ref="D98:S98"/>
+    <mergeCell ref="W87:AA87"/>
+    <mergeCell ref="AB87:AF88"/>
+    <mergeCell ref="K88:Z88"/>
+    <mergeCell ref="AA93:AG95"/>
+    <mergeCell ref="AH93:AN95"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="U84:Y85"/>
+    <mergeCell ref="D85:S85"/>
+    <mergeCell ref="AG86:AM88"/>
+    <mergeCell ref="AN86:AT88"/>
     <mergeCell ref="T41:Z43"/>
     <mergeCell ref="AA41:AG43"/>
     <mergeCell ref="H41:L41"/>
     <mergeCell ref="M42:Q43"/>
+    <mergeCell ref="Z83:AF85"/>
+    <mergeCell ref="AG83:AM85"/>
     <mergeCell ref="AB28:AH30"/>
     <mergeCell ref="AI28:AO30"/>
     <mergeCell ref="W29:AA30"/>
@@ -3274,30 +5794,49 @@
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="M36:S38"/>
     <mergeCell ref="T36:Z38"/>
+    <mergeCell ref="H37:L38"/>
     <mergeCell ref="M24:S26"/>
     <mergeCell ref="T24:Z26"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="H25:L26"/>
     <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="U13:Y14"/>
-    <mergeCell ref="D14:S14"/>
     <mergeCell ref="R16:X18"/>
     <mergeCell ref="Y16:AE18"/>
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="M17:Q18"/>
-    <mergeCell ref="AK6:AO7"/>
-    <mergeCell ref="Z2:AF4"/>
+    <mergeCell ref="Z12:AF14"/>
     <mergeCell ref="AP5:AV7"/>
     <mergeCell ref="AG2:AM4"/>
     <mergeCell ref="AW5:BC7"/>
-    <mergeCell ref="Z12:AF14"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="U13:Y14"/>
+    <mergeCell ref="D14:S14"/>
     <mergeCell ref="AG12:AM14"/>
     <mergeCell ref="D4:S4"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="U3:Y4"/>
     <mergeCell ref="AF6:AJ6"/>
     <mergeCell ref="T7:AI7"/>
+    <mergeCell ref="AK6:AO7"/>
+    <mergeCell ref="Z2:AF4"/>
+    <mergeCell ref="Z51:AF53"/>
+    <mergeCell ref="AG51:AM53"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="U52:Y53"/>
+    <mergeCell ref="D53:S53"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="U65:Y66"/>
+    <mergeCell ref="D66:S66"/>
+    <mergeCell ref="AG54:AM56"/>
+    <mergeCell ref="AN54:AT56"/>
+    <mergeCell ref="U55:Y55"/>
+    <mergeCell ref="Z55:AD56"/>
+    <mergeCell ref="I56:X56"/>
+    <mergeCell ref="M68:S70"/>
+    <mergeCell ref="T68:Z70"/>
+    <mergeCell ref="H69:L70"/>
+    <mergeCell ref="Z64:AF66"/>
+    <mergeCell ref="AG64:AM66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
